--- a/www/IndicatorsPerCountry/NewZealand_GDPperCapita_TerritorialRef_1946_2012_CCode_554.xlsx
+++ b/www/IndicatorsPerCountry/NewZealand_GDPperCapita_TerritorialRef_1946_2012_CCode_554.xlsx
@@ -492,13 +492,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/NewZealand_GDPperCapita_TerritorialRef_1946_2012_CCode_554.xlsx
+++ b/www/IndicatorsPerCountry/NewZealand_GDPperCapita_TerritorialRef_1946_2012_CCode_554.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="169">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,433 +36,454 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1144</t>
+    <t>826</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>3155</t>
-  </si>
-  <si>
-    <t>3523</t>
-  </si>
-  <si>
-    <t>3831</t>
-  </si>
-  <si>
-    <t>3843</t>
-  </si>
-  <si>
-    <t>3688</t>
-  </si>
-  <si>
-    <t>3623</t>
-  </si>
-  <si>
-    <t>3982</t>
-  </si>
-  <si>
-    <t>4271</t>
-  </si>
-  <si>
-    <t>3569</t>
-  </si>
-  <si>
-    <t>3747</t>
-  </si>
-  <si>
-    <t>3765</t>
-  </si>
-  <si>
-    <t>3646</t>
-  </si>
-  <si>
-    <t>3495</t>
-  </si>
-  <si>
-    <t>3703</t>
-  </si>
-  <si>
-    <t>3587</t>
-  </si>
-  <si>
-    <t>3602</t>
-  </si>
-  <si>
-    <t>3604</t>
-  </si>
-  <si>
-    <t>3554</t>
-  </si>
-  <si>
-    <t>3701</t>
-  </si>
-  <si>
-    <t>3755</t>
-  </si>
-  <si>
-    <t>3731</t>
-  </si>
-  <si>
-    <t>3801</t>
-  </si>
-  <si>
-    <t>3788</t>
-  </si>
-  <si>
-    <t>3579</t>
-  </si>
-  <si>
-    <t>3642</t>
-  </si>
-  <si>
-    <t>3988</t>
-  </si>
-  <si>
-    <t>3950</t>
-  </si>
-  <si>
-    <t>3985</t>
-  </si>
-  <si>
-    <t>4041</t>
-  </si>
-  <si>
-    <t>4298</t>
-  </si>
-  <si>
-    <t>4223</t>
-  </si>
-  <si>
-    <t>4438</t>
-  </si>
-  <si>
-    <t>4727</t>
-  </si>
-  <si>
-    <t>4570</t>
-  </si>
-  <si>
-    <t>4850</t>
-  </si>
-  <si>
-    <t>5158</t>
-  </si>
-  <si>
-    <t>5340</t>
-  </si>
-  <si>
-    <t>4835</t>
-  </si>
-  <si>
-    <t>4770</t>
-  </si>
-  <si>
-    <t>5316</t>
-  </si>
-  <si>
-    <t>5494</t>
-  </si>
-  <si>
-    <t>5209</t>
-  </si>
-  <si>
-    <t>5152</t>
-  </si>
-  <si>
-    <t>5189</t>
-  </si>
-  <si>
-    <t>5174</t>
-  </si>
-  <si>
-    <t>5120</t>
-  </si>
-  <si>
-    <t>5008</t>
-  </si>
-  <si>
-    <t>4911</t>
-  </si>
-  <si>
-    <t>5283</t>
-  </si>
-  <si>
-    <t>5641</t>
-  </si>
-  <si>
-    <t>5128</t>
-  </si>
-  <si>
-    <t>4841</t>
-  </si>
-  <si>
-    <t>5144</t>
-  </si>
-  <si>
-    <t>5143</t>
-  </si>
-  <si>
-    <t>5292</t>
-  </si>
-  <si>
-    <t>4905</t>
-  </si>
-  <si>
-    <t>4683</t>
-  </si>
-  <si>
-    <t>5141</t>
-  </si>
-  <si>
-    <t>5262</t>
-  </si>
-  <si>
-    <t>4960</t>
-  </si>
-  <si>
-    <t>4475</t>
-  </si>
-  <si>
-    <t>4327</t>
-  </si>
-  <si>
-    <t>4576</t>
-  </si>
-  <si>
-    <t>4768</t>
-  </si>
-  <si>
-    <t>4959</t>
-  </si>
-  <si>
-    <t>5840</t>
-  </si>
-  <si>
-    <t>6102</t>
-  </si>
-  <si>
-    <t>6462</t>
-  </si>
-  <si>
-    <t>6460</t>
-  </si>
-  <si>
-    <t>6300</t>
-  </si>
-  <si>
-    <t>6129</t>
-  </si>
-  <si>
-    <t>6762</t>
-  </si>
-  <si>
-    <t>6928</t>
-  </si>
-  <si>
-    <t>6868</t>
-  </si>
-  <si>
-    <t>7161</t>
-  </si>
-  <si>
-    <t>7846</t>
-  </si>
-  <si>
-    <t>6929</t>
-  </si>
-  <si>
-    <t>7521</t>
-  </si>
-  <si>
-    <t>8456</t>
-  </si>
-  <si>
-    <t>7653</t>
-  </si>
-  <si>
-    <t>7796</t>
-  </si>
-  <si>
-    <t>7856</t>
-  </si>
-  <si>
-    <t>8743</t>
-  </si>
-  <si>
-    <t>8725</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>9045</t>
-  </si>
-  <si>
-    <t>9185</t>
-  </si>
-  <si>
-    <t>9630</t>
-  </si>
-  <si>
-    <t>9465</t>
-  </si>
-  <si>
-    <t>9745</t>
-  </si>
-  <si>
-    <t>9731</t>
-  </si>
-  <si>
-    <t>10132</t>
-  </si>
-  <si>
-    <t>10418</t>
-  </si>
-  <si>
-    <t>10879</t>
-  </si>
-  <si>
-    <t>11362</t>
-  </si>
-  <si>
-    <t>10682</t>
-  </si>
-  <si>
-    <t>10545</t>
-  </si>
-  <si>
-    <t>11511</t>
-  </si>
-  <si>
-    <t>11189</t>
-  </si>
-  <si>
-    <t>11576</t>
-  </si>
-  <si>
-    <t>11850</t>
-  </si>
-  <si>
-    <t>12424</t>
-  </si>
-  <si>
-    <t>12879</t>
-  </si>
-  <si>
-    <t>12489</t>
-  </si>
-  <si>
-    <t>12648</t>
-  </si>
-  <si>
-    <t>11989</t>
-  </si>
-  <si>
-    <t>12034</t>
-  </si>
-  <si>
-    <t>12284</t>
-  </si>
-  <si>
-    <t>12347</t>
-  </si>
-  <si>
-    <t>12884</t>
-  </si>
-  <si>
-    <t>12996</t>
-  </si>
-  <si>
-    <t>13184</t>
-  </si>
-  <si>
-    <t>13666</t>
-  </si>
-  <si>
-    <t>13664</t>
-  </si>
-  <si>
-    <t>13880</t>
-  </si>
-  <si>
-    <t>13891</t>
-  </si>
-  <si>
-    <t>13816</t>
-  </si>
-  <si>
-    <t>13869</t>
-  </si>
-  <si>
-    <t>13687.4633861</t>
-  </si>
-  <si>
-    <t>13374.2233463</t>
-  </si>
-  <si>
-    <t>13373.4215256</t>
-  </si>
-  <si>
-    <t>14031.5439486</t>
-  </si>
-  <si>
-    <t>14551.0477773</t>
-  </si>
-  <si>
-    <t>14909.2471442</t>
-  </si>
-  <si>
-    <t>15144.3651687</t>
-  </si>
-  <si>
-    <t>15407.1071502</t>
-  </si>
-  <si>
-    <t>15477.0803284</t>
-  </si>
-  <si>
-    <t>16202.0237255</t>
-  </si>
-  <si>
-    <t>16518.1157896</t>
-  </si>
-  <si>
-    <t>16933.8915753</t>
-  </si>
-  <si>
-    <t>17485.5443442</t>
-  </si>
-  <si>
-    <t>17880.9491347</t>
-  </si>
-  <si>
-    <t>18298.0254706</t>
-  </si>
-  <si>
-    <t>18705.7236928</t>
-  </si>
-  <si>
-    <t>18926.9402374</t>
-  </si>
-  <si>
-    <t>19268.6359864</t>
-  </si>
-  <si>
-    <t>18875.3620758</t>
-  </si>
-  <si>
-    <t>18843.1138492</t>
-  </si>
-  <si>
-    <t>18886.1611972</t>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>3526</t>
+  </si>
+  <si>
+    <t>4941</t>
+  </si>
+  <si>
+    <t>5029</t>
+  </si>
+  <si>
+    <t>5616</t>
+  </si>
+  <si>
+    <t>6107</t>
+  </si>
+  <si>
+    <t>6126</t>
+  </si>
+  <si>
+    <t>5879</t>
+  </si>
+  <si>
+    <t>5775</t>
+  </si>
+  <si>
+    <t>6347</t>
+  </si>
+  <si>
+    <t>6808</t>
+  </si>
+  <si>
+    <t>5689</t>
+  </si>
+  <si>
+    <t>5973</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>5812</t>
+  </si>
+  <si>
+    <t>5571</t>
+  </si>
+  <si>
+    <t>5903</t>
+  </si>
+  <si>
+    <t>5718</t>
+  </si>
+  <si>
+    <t>5742</t>
+  </si>
+  <si>
+    <t>5745</t>
+  </si>
+  <si>
+    <t>5665</t>
+  </si>
+  <si>
+    <t>5899</t>
+  </si>
+  <si>
+    <t>5985</t>
+  </si>
+  <si>
+    <t>5947</t>
+  </si>
+  <si>
+    <t>6059</t>
+  </si>
+  <si>
+    <t>6038</t>
+  </si>
+  <si>
+    <t>5705</t>
+  </si>
+  <si>
+    <t>5805</t>
+  </si>
+  <si>
+    <t>6357</t>
+  </si>
+  <si>
+    <t>6296</t>
+  </si>
+  <si>
+    <t>6352</t>
+  </si>
+  <si>
+    <t>6441</t>
+  </si>
+  <si>
+    <t>6851</t>
+  </si>
+  <si>
+    <t>6731</t>
+  </si>
+  <si>
+    <t>7074</t>
+  </si>
+  <si>
+    <t>7535</t>
+  </si>
+  <si>
+    <t>7285</t>
+  </si>
+  <si>
+    <t>7731</t>
+  </si>
+  <si>
+    <t>8222</t>
+  </si>
+  <si>
+    <t>8512</t>
+  </si>
+  <si>
+    <t>7707</t>
+  </si>
+  <si>
+    <t>7603</t>
+  </si>
+  <si>
+    <t>8474</t>
+  </si>
+  <si>
+    <t>8757</t>
+  </si>
+  <si>
+    <t>8303</t>
+  </si>
+  <si>
+    <t>8212</t>
+  </si>
+  <si>
+    <t>8271</t>
+  </si>
+  <si>
+    <t>8247</t>
+  </si>
+  <si>
+    <t>8161</t>
+  </si>
+  <si>
+    <t>7983</t>
+  </si>
+  <si>
+    <t>7828</t>
+  </si>
+  <si>
+    <t>8421</t>
+  </si>
+  <si>
+    <t>8992</t>
+  </si>
+  <si>
+    <t>8174</t>
+  </si>
+  <si>
+    <t>7716</t>
+  </si>
+  <si>
+    <t>8199</t>
+  </si>
+  <si>
+    <t>8198</t>
+  </si>
+  <si>
+    <t>8435</t>
+  </si>
+  <si>
+    <t>7818</t>
+  </si>
+  <si>
+    <t>7465</t>
+  </si>
+  <si>
+    <t>8195</t>
+  </si>
+  <si>
+    <t>8388</t>
+  </si>
+  <si>
+    <t>7906</t>
+  </si>
+  <si>
+    <t>7133</t>
+  </si>
+  <si>
+    <t>6897</t>
+  </si>
+  <si>
+    <t>7294</t>
+  </si>
+  <si>
+    <t>7600</t>
+  </si>
+  <si>
+    <t>7905</t>
+  </si>
+  <si>
+    <t>9309</t>
+  </si>
+  <si>
+    <t>9726</t>
+  </si>
+  <si>
+    <t>10300</t>
+  </si>
+  <si>
+    <t>10297</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>9770</t>
+  </si>
+  <si>
+    <t>10779</t>
+  </si>
+  <si>
+    <t>11043</t>
+  </si>
+  <si>
+    <t>10947</t>
+  </si>
+  <si>
+    <t>11415</t>
+  </si>
+  <si>
+    <t>12506</t>
+  </si>
+  <si>
+    <t>11045</t>
+  </si>
+  <si>
+    <t>11988</t>
+  </si>
+  <si>
+    <t>13479</t>
+  </si>
+  <si>
+    <t>12199</t>
+  </si>
+  <si>
+    <t>12427</t>
+  </si>
+  <si>
+    <t>12522</t>
+  </si>
+  <si>
+    <t>13936</t>
+  </si>
+  <si>
+    <t>13908</t>
+  </si>
+  <si>
+    <t>14346</t>
+  </si>
+  <si>
+    <t>14418</t>
+  </si>
+  <si>
+    <t>14641</t>
+  </si>
+  <si>
+    <t>15350</t>
+  </si>
+  <si>
+    <t>15087</t>
+  </si>
+  <si>
+    <t>15533</t>
+  </si>
+  <si>
+    <t>15511</t>
+  </si>
+  <si>
+    <t>16150</t>
+  </si>
+  <si>
+    <t>16606</t>
+  </si>
+  <si>
+    <t>17341</t>
+  </si>
+  <si>
+    <t>18111</t>
+  </si>
+  <si>
+    <t>17027</t>
+  </si>
+  <si>
+    <t>16809</t>
+  </si>
+  <si>
+    <t>18348</t>
+  </si>
+  <si>
+    <t>17835</t>
+  </si>
+  <si>
+    <t>18452</t>
+  </si>
+  <si>
+    <t>18889</t>
+  </si>
+  <si>
+    <t>19804</t>
+  </si>
+  <si>
+    <t>20529</t>
+  </si>
+  <si>
+    <t>19907</t>
+  </si>
+  <si>
+    <t>20161</t>
+  </si>
+  <si>
+    <t>19110</t>
+  </si>
+  <si>
+    <t>19182</t>
+  </si>
+  <si>
+    <t>19580</t>
+  </si>
+  <si>
+    <t>19681</t>
+  </si>
+  <si>
+    <t>20537</t>
+  </si>
+  <si>
+    <t>20715</t>
+  </si>
+  <si>
+    <t>21015</t>
+  </si>
+  <si>
+    <t>21783</t>
+  </si>
+  <si>
+    <t>21780</t>
+  </si>
+  <si>
+    <t>22124</t>
+  </si>
+  <si>
+    <t>22142</t>
+  </si>
+  <si>
+    <t>22022</t>
+  </si>
+  <si>
+    <t>22107</t>
+  </si>
+  <si>
+    <t>21817</t>
+  </si>
+  <si>
+    <t>21125.8944414646</t>
+  </si>
+  <si>
+    <t>21093.0613402617</t>
+  </si>
+  <si>
+    <t>21897.6755892503</t>
+  </si>
+  <si>
+    <t>23076.8580370377</t>
+  </si>
+  <si>
+    <t>23751.9032799233</t>
+  </si>
+  <si>
+    <t>24321.2480093897</t>
+  </si>
+  <si>
+    <t>24802.1296523904</t>
+  </si>
+  <si>
+    <t>24861.4157443302</t>
+  </si>
+  <si>
+    <t>25867.9927819408</t>
+  </si>
+  <si>
+    <t>26823.0174593025</t>
+  </si>
+  <si>
+    <t>27167.3185349053</t>
+  </si>
+  <si>
+    <t>28065.8559551482</t>
+  </si>
+  <si>
+    <t>28876.2869520371</t>
+  </si>
+  <si>
+    <t>29806.7352654402</t>
+  </si>
+  <si>
+    <t>30270.2473188373</t>
+  </si>
+  <si>
+    <t>30798.6310699084</t>
+  </si>
+  <si>
+    <t>31784.4408190404</t>
+  </si>
+  <si>
+    <t>31444.6332354074</t>
+  </si>
+  <si>
+    <t>31233.0758303917</t>
+  </si>
+  <si>
+    <t>31586.0893267896</t>
+  </si>
+  <si>
+    <t>32057</t>
+  </si>
+  <si>
+    <t>32674</t>
+  </si>
+  <si>
+    <t>32989</t>
+  </si>
+  <si>
+    <t>33339</t>
+  </si>
+  <si>
+    <t>33696</t>
+  </si>
+  <si>
+    <t>34295</t>
   </si>
   <si>
     <t>Description</t>
@@ -577,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1850.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -594,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1851.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -611,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1852.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -628,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1853.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -645,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1854.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -662,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1855.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -679,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1856.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -696,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1857.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -713,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1858.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -730,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1859.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -747,10 +768,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1860.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -764,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1861.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -781,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1862.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -798,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1863.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -815,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1864.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -832,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1865.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -849,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1866.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -866,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1867.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -883,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1868.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -900,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1869.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -917,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1870.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -934,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1871.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -951,10 +972,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1872.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -968,10 +989,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1873.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -985,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1874.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1002,10 +1023,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1875.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1019,10 +1040,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1876.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1057,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1877.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1053,10 +1074,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1878.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1070,10 +1091,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1879.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1087,10 +1108,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1880.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1104,10 +1125,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1881.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1121,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1882.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1138,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1883.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1155,10 +1176,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1884.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1172,10 +1193,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1885.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1189,10 +1210,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1886.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1206,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1887.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1223,10 +1244,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1888.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1240,10 +1261,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1889.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1257,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1890.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1274,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1891.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1291,10 +1312,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1892.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1308,10 +1329,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1893.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1325,10 +1346,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1894.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1342,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1895.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1359,10 +1380,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1896.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1376,10 +1397,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1897.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1393,10 +1414,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1898.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1410,10 +1431,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1899.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1427,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1900.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -1444,10 +1465,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1901.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -1461,10 +1482,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1902.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1478,10 +1499,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1903.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -1495,10 +1516,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1904.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -1512,10 +1533,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1905.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -1529,10 +1550,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1906.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1546,10 +1567,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1907.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -1563,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1908.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -1580,10 +1601,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1909.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -1597,10 +1618,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1910.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -1614,10 +1635,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1911.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -1631,10 +1652,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1912.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -1648,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1913.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -1665,10 +1686,10 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1914.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -1682,10 +1703,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1915.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -1699,10 +1720,10 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1916.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -1716,10 +1737,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1917.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -1733,10 +1754,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1918.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -1750,10 +1771,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1919.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -1767,10 +1788,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1920.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E72" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -1784,10 +1805,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1921.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -1801,10 +1822,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1922.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -1818,10 +1839,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1923.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -1835,10 +1856,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1924.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E76" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -1852,10 +1873,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1925.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E77" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
@@ -1869,10 +1890,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1926.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -1886,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1927.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E79" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
@@ -1903,10 +1924,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1928.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
@@ -1920,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1929.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E81" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
@@ -1937,10 +1958,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1930.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
@@ -1954,10 +1975,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1931.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E83" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
@@ -1971,10 +1992,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1932.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E84" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
@@ -1988,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1933.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E85" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
@@ -2005,10 +2026,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1934.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
@@ -2022,10 +2043,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1935.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
@@ -2039,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1936.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E88" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -2056,10 +2077,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1937.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
@@ -2073,10 +2094,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1938.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E90" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
@@ -2090,10 +2111,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1939.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E91" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
@@ -2107,10 +2128,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1940.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93">
@@ -2124,10 +2145,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1941.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
@@ -2141,10 +2162,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1942.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95">
@@ -2158,10 +2179,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1943.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96">
@@ -2175,10 +2196,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1944.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97">
@@ -2192,10 +2213,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1945.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98">
@@ -2209,10 +2230,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1946.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E98" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
@@ -2226,10 +2247,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1947.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E99" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100">
@@ -2243,10 +2264,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1948.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101">
@@ -2260,10 +2281,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1949.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E101" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
@@ -2277,10 +2298,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1950.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103">
@@ -2294,10 +2315,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1951.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104">
@@ -2311,10 +2332,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1952.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105">
@@ -2328,10 +2349,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1953.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E105" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106">
@@ -2345,10 +2366,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1954.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E106" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107">
@@ -2362,10 +2383,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1955.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108">
@@ -2379,10 +2400,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1956.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E108" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109">
@@ -2396,10 +2417,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1957.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E109" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110">
@@ -2413,10 +2434,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1958.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111">
@@ -2430,10 +2451,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1959.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112">
@@ -2447,10 +2468,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1960.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E112" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113">
@@ -2464,10 +2485,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1961.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E113" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114">
@@ -2481,10 +2502,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1962.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E114" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
@@ -2498,10 +2519,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1963.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E115" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116">
@@ -2515,10 +2536,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1964.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E116" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
@@ -2532,10 +2553,10 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1965.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118">
@@ -2549,10 +2570,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1966.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E118" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
@@ -2566,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1967.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E119" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120">
@@ -2583,10 +2604,10 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1968.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121">
@@ -2600,10 +2621,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1969.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E121" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
@@ -2617,10 +2638,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1970.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E122" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123">
@@ -2634,10 +2655,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1971.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E123" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124">
@@ -2651,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1972.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E124" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125">
@@ -2668,10 +2689,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1973.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E125" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
@@ -2685,10 +2706,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1974.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E126" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127">
@@ -2702,10 +2723,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1975.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E127" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
@@ -2719,10 +2740,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1976.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E128" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129">
@@ -2736,10 +2757,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1977.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E129" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130">
@@ -2753,10 +2774,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1978.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E130" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131">
@@ -2770,10 +2791,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1979.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E131" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132">
@@ -2787,10 +2808,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1980.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E132" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
@@ -2804,10 +2825,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1981.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E133" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134">
@@ -2821,10 +2842,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1982.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E134" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135">
@@ -2838,10 +2859,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1983.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E135" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136">
@@ -2855,10 +2876,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1984.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E136" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137">
@@ -2872,10 +2893,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1985.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E137" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138">
@@ -2889,10 +2910,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1986.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E138" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139">
@@ -2906,10 +2927,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1987.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E139" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140">
@@ -2923,10 +2944,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1988.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E140" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141">
@@ -2940,10 +2961,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1989.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E141" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142">
@@ -2957,10 +2978,10 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1990.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E142" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143">
@@ -2974,10 +2995,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1991.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E143" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144">
@@ -2991,10 +3012,10 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1992.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E144" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145">
@@ -3008,10 +3029,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1993.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E145" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146">
@@ -3025,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1994.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E146" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147">
@@ -3042,10 +3063,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1995.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E147" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148">
@@ -3059,10 +3080,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1996.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E148" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
@@ -3076,10 +3097,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1997.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E149" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150">
@@ -3093,10 +3114,10 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1998.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E150" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151">
@@ -3110,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1999.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E151" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152">
@@ -3127,10 +3148,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>2000.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E152" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153">
@@ -3144,10 +3165,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>2001.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E153" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154">
@@ -3161,10 +3182,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>2002.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E154" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155">
@@ -3178,10 +3199,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>2003.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E155" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="156">
@@ -3195,10 +3216,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>2004.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E156" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157">
@@ -3212,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>2005.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E157" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="158">
@@ -3229,10 +3250,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>2006.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E158" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159">
@@ -3246,10 +3267,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>2007.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E159" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="160">
@@ -3263,10 +3284,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>2008.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E160" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161">
@@ -3280,10 +3301,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>2009.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E161" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162">
@@ -3297,10 +3318,622 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E162" t="s">
-        <v>149</v>
+      <c r="E192" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3318,50 +3951,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
